--- a/Projects/train_data.xlsx
+++ b/Projects/train_data.xlsx
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Optimization not good even my Snapdragon 865 can't handle high + 60fps, In time of gameplay my mobile touch 44°c  Please, optimize game for user. If high-end device can't handle then just think about mid-range device. Overall game and graphics is awesome, I just love everything about this game.  1 Star because they want us to purchase in-game item, they are not giving much rewards.</t>
+          <t>Optimization not good even my Snapdragon 865 can't handle high + 60fps, In 20min of gameplay my mobile touch 44°c fire Please, optimize game for user. If high-end device can't handle then just think about mid-range device. Overall game and graphics is awesome, I just love everything about this game. In 1 Star because they want us to purchase in-game item, they are not giving much rewards.</t>
         </is>
       </c>
     </row>
@@ -2590,7 +2590,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hi... Can u help me.. Its always say can't connect server error code 4206..i didn't want to uninstall then install it back.. Its its really took away large amount of my data n time... Already try all server but still got the same problem....once it settle I'll give my review star back.. - with warm regards </t>
+          <t>Hi... Can u help me.. Its always say can't connect server error code 4206..i didn't want to uninstall then install it back.. Its its really took away large amount of my data n time... Already try all server but still got the same problem....once it settle I'll give my review star back.. ~ with warm regards smiling_face_with_smiling_eyes</t>
         </is>
       </c>
     </row>
@@ -3443,7 +3443,11 @@
       <c r="B252" t="n">
         <v>2</v>
       </c>
-      <c r="C252" t="inlineStr"/>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>... 만들어주는.........</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
@@ -3799,7 +3803,7 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t xml:space="preserve">The gameplay and character designs are nice, but the downside is that it has a lot of grindy aspect that needs to be done and the game system is quite expensive and not totally rewarding at some point. </t>
+          <t>The gameplay and character designs are nice, but the downside is that it has a lot of grindy aspect that needs to be done and the game system is quite expensive and not totally rewarding at some point. confused_face</t>
         </is>
       </c>
     </row>
@@ -4027,7 +4031,7 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>I loved it but there is something I hope you add that you allow us to play two of the same device and I mean by this one and please accept my thanks.</t>
+          <t>I loved it but there is something I hope you add that you allow us to play two of the same device and I mean by this, and please accept my thanks.slightly_smiling_facesparkling_heart</t>
         </is>
       </c>
     </row>
@@ -4232,7 +4236,7 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t xml:space="preserve">Good job on the Anniversary  This is a joke, the One Year Anniversary was the worst one that I've seen in my entire life of playing card games. And I think you all agree on that. P.S. But don't ban me for saying this. </t>
+          <t>Good job on the Anniversary OK_hand This is a joke, the One Year Anniversary was the worst one that I've seen in my entire life of playing card games. And I think you all agree on that. P.S. But don't ban me for saying this. face_with_tears_of_joy</t>
         </is>
       </c>
     </row>
@@ -4490,7 +4494,7 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t xml:space="preserve">I like this game and i love it but after 15 min of playing my game is dropping im using realme or Mediatek and my game graphics is lowest and now not playable i hope you fix this. Sad to say i need to uninstall it. </t>
+          <t>I like this game and i love it but after 15 min of playing my game is dropping im using realme or Mediatek and my game graphics is lowest and now not playable i hope you fix this. Sad to say i need to uninstall it. loudly_crying_face</t>
         </is>
       </c>
     </row>
@@ -4661,7 +4665,7 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>A bit bit and on mobile the graphics are kinda bad sorry</t>
+          <t>A bit bit like on mobile the graphics are kinda bad sorryface_with_open_mouth_&amp;_cold_sweatface_with_open_mouth_&amp;_cold_sweat</t>
         </is>
       </c>
     </row>
@@ -5078,7 +5082,7 @@
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>This game is very good and popular but i ca##t play it out of sufficient space but i ca##t find anything it but that i can play on PS4</t>
+          <t>This game is very good and popular but i ca. play it out of sufficient space but i ca/ find anything itneutral_face but atleast i can play on PS4expressionless_face</t>
         </is>
       </c>
     </row>
@@ -5139,7 +5143,7 @@
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kenapa farming aretefak ka bgt dpetin ka and suba dag terutama crimson to develop dimudahkan farmingnya </t>
+          <t>Kenapa farming aretefak ka bgt dpetin kas suba dag terutama crimson to develop dimudahkan farmingnya.</t>
         </is>
       </c>
     </row>
@@ -5252,7 +5256,7 @@
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t xml:space="preserve">Wtfffff I played for hours now, and I played in today but the game is starting from the beginning whyyyyyyyyy? </t>
+          <t>Wtfffff I played for hours now, and I played in today but the game is starting from the beginning whyyyyyyyyy? pouting_faceangry_faceangry_faceangry_faceangry_faceangry_face</t>
         </is>
       </c>
     </row>
@@ -5807,7 +5811,7 @@
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t xml:space="preserve">game. memang nai balik2 terkeluar. game.. maybe not support on my phone.. i'm sad </t>
+          <t>game. memang nai balik2 terkeluar. game.. maybe not support on my phone.. i'm sad worried_face</t>
         </is>
       </c>
     </row>
@@ -5853,11 +5857,7 @@
       <c r="B458" t="n">
         <v>2</v>
       </c>
-      <c r="C458" t="inlineStr">
-        <is>
-          <t>Give me me</t>
-        </is>
-      </c>
+      <c r="C458" t="inlineStr"/>
     </row>
     <row r="459">
       <c r="A459" s="2" t="n">
@@ -6196,7 +6196,7 @@
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>I Love the game but the reason I give 2 star is because its to pay for some phones I want to request Some Low graphics that a low end phone can handle</t>
+          <t>I Love the game but the reason I give 2 star is because its to pay for some phones I want to request Some Low graphics that a low end phone can handle.</t>
         </is>
       </c>
     </row>
@@ -6349,7 +6349,7 @@
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>I wanna play the game..,but I fell like I work for this game.. that is... Just help people...</t>
+          <t>I wanna play the game..,but I fell like I work for this game..expressionless_faceexpressionless_faceexpressionless_face that is... Just help people...</t>
         </is>
       </c>
     </row>
@@ -7005,7 +7005,7 @@
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t xml:space="preserve">but no bc this fricking pain makes my phone go glitchy i ca##l even see the screen man i almost killed him but i ran out of food to heal my fricking self and venti is full he ca. take another bite so i died bc of this if this shit happened one more goddamn time im actually going to quit genshin no joke </t>
+          <t>but no bc this fricking pain makes my phone go glitchy i ca##l even see the screen man i almost killed him but i ran out of food to heal my fricking self and venti is full he ca. take another bite so i died bc of this if this shit happened one more goddamn time im actually going to quit genshin no joke,thumbs_up</t>
         </is>
       </c>
     </row>
@@ -7092,7 +7092,7 @@
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>Please optimize this game. Battery ran so fast 100 to 50 percent in just time. I have many other games in my phone but this game sucks all the battery juice. So please optimize the game.</t>
+          <t>Please optimize this game. Battery ran so fast 100 to 50 percent in just time. I have many other games in my phone but this game sucks all the battery juice. So please optimize the game.folded_hands</t>
         </is>
       </c>
     </row>
@@ -7138,7 +7138,11 @@
       <c r="B571" t="n">
         <v>2</v>
       </c>
-      <c r="C571" t="inlineStr"/>
+      <c r="C571" t="inlineStr">
+        <is>
+          <t>Can't get the good characters even after so many pulls.</t>
+        </is>
+      </c>
     </row>
     <row r="572">
       <c r="A572" s="2" t="n">
@@ -7149,7 +7153,7 @@
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>So far it's really good. But there is a bug with one of your daily event. The one by Liyue where you need to defeat 4 water heroes. And everytime I do, it doesn't register that the event was complete. I made very sure that all enemies were defeated. But no. No reward for me.  Bummer.</t>
+          <t>So far it's really good. But there is a bug with one of your daily event. The one by Liyue where you need to defeat 4 water heroes. And everytime I do, it doesn't register that the event was complete. I made very sure that all enemies were defeated. But no. No reward for me. pensive_face Bummer.</t>
         </is>
       </c>
     </row>
@@ -7162,7 +7166,7 @@
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>Please optimize the use in low end devices</t>
+          <t>Please optimize the view in low end devices.</t>
         </is>
       </c>
     </row>
@@ -7320,7 +7324,7 @@
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t xml:space="preserve">I donot get 20 free wish </t>
+          <t>I donot get 20 free wish face_with_rolling_eyes</t>
         </is>
       </c>
     </row>
@@ -8309,7 +8313,11 @@
       <c r="B674" t="n">
         <v>2</v>
       </c>
-      <c r="C674" t="inlineStr"/>
+      <c r="C674" t="inlineStr">
+        <is>
+          <t>A whole year and they didn't fix the email chat system person_facepalming‍female_sign️</t>
+        </is>
+      </c>
     </row>
     <row r="675">
       <c r="A675" s="2" t="n">
@@ -8430,7 +8438,7 @@
       </c>
       <c r="C685" t="inlineStr">
         <is>
-          <t xml:space="preserve">This is like attending a birthday party. You greet him, and you gave him a gift. Small, big, doesn't matter, he opens it and he tells you he likes it. He then offers you a small piece of dry chicken. No beverage, no party games, doesn't even offer a small slice of cake. Then the celebrant thanks you and tells you to leave immediately after you're done. </t>
+          <t>This is like attending a birthday party. You greet him, and you gave him a gift. Small, big, doesn't matter, he opens it and he tells you he likes it. He then offers you a small piece of dry chicken. No beverage, no party games, doesn't even offer a small slice of cake. Then the celebrant thanks you and tells you to leave immediately after you're done. clown_face</t>
         </is>
       </c>
     </row>
@@ -8769,7 +8777,7 @@
       </c>
       <c r="C716" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gacha pull rates are awful, always get the same character, can you please fix the rate system on the table, I get tired always get the same character!!! Thanks </t>
+          <t>Gacha pull rates are awful, always get the same character, can you please fix the rate system on the table, I get tired always get the same character!!! Thanks thumbs_up</t>
         </is>
       </c>
     </row>
@@ -8896,7 +8904,7 @@
       </c>
       <c r="C727" t="inlineStr">
         <is>
-          <t>2 no me gane la bendición</t>
+          <t>2★, me gane la bendición</t>
         </is>
       </c>
     </row>
@@ -8992,7 +9000,7 @@
       </c>
       <c r="C735" t="inlineStr">
         <is>
-          <t>After 2.4 update many android user experienced delay in enemy appearance,damage and particle absorption that it can't be playable anymore..please fix this soon or it will be rough for us(,)</t>
+          <t>After 2.4 update many android user experienced delay in enemy appearance,damage and particle absorption that it can't be playable anymore..please fix this soon or it will be rough for us(:︵。,)</t>
         </is>
       </c>
     </row>
@@ -9535,7 +9543,7 @@
       </c>
       <c r="C782" t="inlineStr">
         <is>
-          <t>PLEASE. JUST MAKE IN HAPPY WITH.  Like why would Childe choose melody??</t>
+          <t>PLEASE. JUST MAKE IN HAPPY WITH A loudly_crying_face Like why would Childe choose melody??</t>
         </is>
       </c>
     </row>
@@ -9732,7 +9740,7 @@
       </c>
       <c r="C799" t="inlineStr">
         <is>
-          <t xml:space="preserve">This game had a very good start with cool awesome rewards but in late game the rewards fell of sharply. It's anniversary rewards were trashy. Now a days it's hard to get the a 5 star character I lost pity 3 times in a row </t>
+          <t>This game had a very good start with cool awesome rewards but in late game the rewards fell of sharply. It's anniversary rewards were trashy. Now a days it's hard to get the a 5 star character I lost pity 3 times in a row weary_face</t>
         </is>
       </c>
     </row>
@@ -10008,7 +10016,11 @@
       <c r="B821" t="n">
         <v>2</v>
       </c>
-      <c r="C821" t="inlineStr"/>
+      <c r="C821" t="inlineStr">
+        <is>
+          <t>this is a good learning experience for my smiling_face_with_smiling_eyes</t>
+        </is>
+      </c>
     </row>
     <row r="822">
       <c r="A822" s="2" t="n">
@@ -10450,7 +10462,7 @@
       </c>
       <c r="C861" t="inlineStr">
         <is>
-          <t xml:space="preserve">Why mihoyoooooo, anniversary rewards shouldn't be just like half a bar of chocolate give us at least a free 4 star or weapon to come on </t>
+          <t>Why mihoyoooooo, anniversary rewards shouldn't be just like half a bar of chocolate give us at least a free 4 star or weapon then come on._pouting_face.</t>
         </is>
       </c>
     </row>
@@ -11381,7 +11393,7 @@
       </c>
       <c r="C940" t="inlineStr">
         <is>
-          <t xml:space="preserve">7 It is too much to handle sorry </t>
+          <t>7 It is too much to handle sorry face_with_open_mouth_&amp;_cold_sweat</t>
         </is>
       </c>
     </row>
@@ -11407,7 +11419,7 @@
       </c>
       <c r="C942" t="inlineStr">
         <is>
-          <t>I don't play this game because it's shocked meI have to download the resources almost 6GB, even then I have about 100GB+ storage, but I know it will do. But from what I see the graphics, characters etc... is good 3 star for the good things, - 2 star bcs of the resources that I need to download, it's BiG.</t>
+          <t>I don't play this game because it's shocked mesmiling_face_with_open_mouth_&amp;_cold_sweatI have to download the resources almost 6GB, even then I have about 1000 storage, but I know it will do. But from what I see the graphics, characters etc... is goodsmiling_face_with_open_mouth_&amp;_smiling_eyes 3 star for the good things, - 2 star bcs of the resources that I need to download, it's BiG.</t>
         </is>
       </c>
     </row>
@@ -11859,7 +11871,7 @@
       </c>
       <c r="C982" t="inlineStr">
         <is>
-          <t>see i fix this so when i am opening genshin impact it takes time to start so when i play after i guess 2-3 and it gets stuck and i have to open it again that is not is missing two stars 3 stars because this game contains cool dialogues and lines paimon is cute but annoying like a real emergency food 1 star free three characters i am saying three people i am in the middle of the game near the tresure so of there is more it is  and graphics ultimate ok so amazing wishes also cheap good game</t>
+          <t>see i fix this so when i am opening genshin impact it takes time to start so when i play after i guess 2-3 and it gets stuck and i have to open it again that is not is missing two stars 3 stars because this game contains cool dialogues and lines paimon is cute but annoying like a real emergency food 1 star free three characters i am saying three people i am in the middle of the game near the tresure so of there is more it is white_medium_star and graphics ultimate ok so amazing wishes also cheap good game</t>
         </is>
       </c>
     </row>
@@ -11969,7 +11981,7 @@
       </c>
       <c r="C992" t="inlineStr">
         <is>
-          <t xml:space="preserve">I am in # 37 but i did not the new 2.0 update quest </t>
+          <t>I am in # 37 but i did not the new 2.0 update quest loudly_crying_faceloudly_crying_face</t>
         </is>
       </c>
     </row>
@@ -12188,7 +12200,7 @@
       </c>
       <c r="C1011" t="inlineStr">
         <is>
-          <t xml:space="preserve">the game is so good but after i called out for the FIRST TIME and try to open it again, it stuck at the loading screen </t>
+          <t>the game is so good but after i cried out for the FIRST TIME and try to open it again, it stuck at the loading screen loudly_crying_faceloudly_crying_faceloudly_crying_faceloudly_crying_faceloudly_crying_face</t>
         </is>
       </c>
     </row>
@@ -12425,7 +12437,7 @@
       </c>
       <c r="C1032" t="inlineStr">
         <is>
-          <t>No,, as if it's my phone, internet, or the game. But my game has been going so bad after the new update. I have another account on this phone, but it's playing well no less. But my other account was jet slow, like can't move at all</t>
+          <t>No, loudly_crying_face, as if it's my phone, internet, or the game. But my game has been going so bad after the new update. I have another account on this phone, but it's playing well no less. But my other account was jet slow, like can't move at all</t>
         </is>
       </c>
     </row>
@@ -12722,7 +12734,7 @@
       </c>
       <c r="C1057" t="inlineStr">
         <is>
-          <t>Would've given 5 stars but life in India never comes below 180</t>
+          <t>Would've given 5 stars but it in India never comes below 180🥴🥴</t>
         </is>
       </c>
     </row>
@@ -13361,7 +13373,7 @@
       </c>
       <c r="C1112" t="inlineStr">
         <is>
-          <t>If you can add Persian, I, who have a weak English language, find it difficult to play it. I ask its creator to add Persian language as well</t>
+          <t>If you can add Persian, I, who have a weak English language, find it difficult to play it. I ask its creator to add Persian language as wellsmiling_face_with_open_mouth_&amp;_cold_sweat</t>
         </is>
       </c>
     </row>
@@ -13629,7 +13641,7 @@
       </c>
       <c r="C1136" t="inlineStr">
         <is>
-          <t>The game itself is a masterpiece, but recently it keeps crashing. Before this i can play for 0 to 30, it's stable. But after sometimes it start crashing again and again. I have reinstall the game, i have lowered the graphic. And the other day, i email to GM, contact them through any platform available but no one's replying regarding this issued. Please, try to fix it. So it can run smooth on midrange device. Now i can only play the game 15 to 0</t>
+          <t>The game itself is a masterpiece, but recently it keeps crashing. Before this i can play for 0 to 30, it's stable. But after sometimes it start crashing again and again. I have reinstall the game, i have lowered the graphic. And the other day, i email to GM, contact them through any platform available but no one's replying regarding this issued. Please, try to fix it. So it can run smooth on midrange device. Now i can only play the game up to 30sexpressionless_face</t>
         </is>
       </c>
     </row>
@@ -13712,7 +13724,7 @@
       </c>
       <c r="C1143" t="inlineStr">
         <is>
-          <t xml:space="preserve">The Graphics are 100% godly. Story line are 100% mind blowing. The game is 100% addictive to players. My only problem is the genishin impact chatacter summoning. Its really hard to get genishin impact hits, and also getting a new new character. It would take me 30-40 tries JUST to get a 4 star hero. And it will take me atleast 40-45 tries JUST to get a 5 slipping star hero. As if its just my game, or its a bug. At least make the game a little bit easier to get out? I really love this game </t>
+          <t>The Graphics are 100% godly. Story line are 100% mind blowing. The game is 100% addictive to players. My only problem is the genishin impact chatacter summoning. Its really hard to get genishin impact hits, and also getting a new new character. It would take me 30-40 tries JUST to get a 4 star hero. And it will take me atleast 40-45 tries JUST to get a 5 slipping star hero. As if its just my game, or its a bug. At least make the game a little bit easier to get out? I really love this game.</t>
         </is>
       </c>
     </row>
@@ -13842,7 +13854,11 @@
       <c r="B1155" t="n">
         <v>3</v>
       </c>
-      <c r="C1155" t="inlineStr"/>
+      <c r="C1155" t="inlineStr">
+        <is>
+          <t>It's a great game I love it but It has too many bugs and lagging issue I hope you see this Please fix it I'm begging you,folded_handslight_skin_tone</t>
+        </is>
+      </c>
     </row>
     <row r="1156">
       <c r="A1156" s="2" t="n">
@@ -13999,7 +14015,7 @@
       </c>
       <c r="C1170" t="inlineStr">
         <is>
-          <t>It was all fun at first, but the more you get higher a rank, the enemy and difficulty of this game is ridiculously hard. My phonescreen is screaming. I'm losing count of how many times I have died just to fight minor enemies that has higher level than my characters. The speed to find my characters didn't match with the speed of the world level. It's frustrating. I'm losing count at how much I was cursing too while I played  And too much anger when I fight the enemies too...</t>
+          <t>It was all fun at first, but the more you get higher a rank, the enemy and difficulty of this game is ridiculously hard. My phonescreen is screaming. I'm losing count of how many times I have died just to fight minor enemies that has higher level than my characters. The speed to find my characters didn't match with the speed of the world level. It's frustrating. I'm losing count at how much I was cursing too while I played face_with_rolling_eyesface_with_rolling_eyes And too much anger when I fight the enemies too...</t>
         </is>
       </c>
     </row>
@@ -14144,7 +14160,7 @@
       </c>
       <c r="C1183" t="inlineStr">
         <is>
-          <t>I just started playing today, and I ca- get past the first battle with stormterror due to the screen being blue with shades of rainbow which is making me a little dizzy. I was really hoping to play this but I guess Ill just like it if I ca- get past stormterror</t>
+          <t>I just started playing today, and I ca- get past the first battle with stormterror due to the screen being blue with shades of rainbow which is making me a little dizzy. I was really hoping to play this but I guess Ill just like it if I ca- get past stormterrorperson_shrugging‍female_sign️</t>
         </is>
       </c>
     </row>
@@ -14228,7 +14244,7 @@
       </c>
       <c r="C1191" t="inlineStr">
         <is>
-          <t>Hadiah aniversarya bagus</t>
+          <t>Hadiah aniversary _ bagusthumbs_up</t>
         </is>
       </c>
     </row>
@@ -14918,7 +14934,7 @@
       </c>
       <c r="C1253" t="inlineStr">
         <is>
-          <t xml:space="preserve">Very cool game! Needs PayPal... like for real.. keep getting denied when trying to use my cards. RNG is good too. Haven't drawn any map's. </t>
+          <t>Very cool game! Needs PayPal... like for real.. keep getting denied when trying to use my cards. RNG is good too. Haven't drawn any map's. loudly_crying_face</t>
         </is>
       </c>
     </row>
@@ -15111,7 +15127,7 @@
       </c>
       <c r="C1270" t="inlineStr">
         <is>
-          <t xml:space="preserve">I got 10GB in my device and still the game is not downloading and its saying i donot have space in my phone and it needs space  how much space dose it need? And will i be able to sign in with my @ account in my phone? Management Please help </t>
+          <t>I got 10GB in my device and still the game is not downloading and its saying i donot have space in my phone and it needs space loudly_crying_face how much space dose it need? And will i be able to sign in with my @ account in my phone? Management Please help slightly_smiling_face</t>
         </is>
       </c>
     </row>
@@ -15378,7 +15394,7 @@
       </c>
       <c r="C1293" t="inlineStr">
         <is>
-          <t>I rate it 3 star Because it says Insufficient storage but I still have 15% left to fix it or answer why as soon as possible but I download it before and it works but now it's not downloadable .</t>
+          <t>I rate it 3 star Because it says Insufficient storage but I still have 15% left to fix it or answer why as soon as possible but I download it before and it works but now it's not downloadable disappointed_facedisappointed_face.</t>
         </is>
       </c>
     </row>
@@ -15877,7 +15893,7 @@
       </c>
       <c r="C1336" t="inlineStr">
         <is>
-          <t xml:space="preserve">This game is for middle to high-end smartphones only. It does not work well with ISO 665 and below. Though I hope future updates would have way for more players to join because this game is really fun to play. </t>
+          <t>This game is for middle to high-end smartphones only. It does not work well with ISO 665 and below. Though I hope future updates would have way for more players to join because this game is really fun to play. grinning_face_with_smiling_eyes</t>
         </is>
       </c>
     </row>
@@ -16301,7 +16317,11 @@
       <c r="B1374" t="n">
         <v>3</v>
       </c>
-      <c r="C1374" t="inlineStr"/>
+      <c r="C1374" t="inlineStr">
+        <is>
+          <t>Finally they listened, im taking back my 1* and giving you 3 for now until.</t>
+        </is>
+      </c>
     </row>
     <row r="1375">
       <c r="A1375" s="2" t="n">
@@ -16588,7 +16608,7 @@
       </c>
       <c r="C1399" t="inlineStr">
         <is>
-          <t xml:space="preserve">Genshin asks for phone that donot have enough space </t>
+          <t>Genshino for phone that donot have enough space smiling_face_with_open_mouth_&amp;_cold_sweatsmiling_face_with_open_mouth_&amp;_cold_sweatsmiling_face_with_open_mouth_&amp;_cold_sweat</t>
         </is>
       </c>
     </row>
@@ -17631,7 +17651,7 @@
       </c>
       <c r="C1490" t="inlineStr">
         <is>
-          <t>Well I got a good sd865 cheapset smartphone. The gameplay is good. I loved everything about this game. But Its now starting to rain sometimes. Please do fix it. Otherwise this game has so many potentials</t>
+          <t>Well I got a good sd865 cheapset smartphone. The gameplay is good. I loved everything about this game. But Its now starting to rain sometimes. Please do fix it. Otherwise this game has so many potentialsOK_hand</t>
         </is>
       </c>
     </row>
@@ -17960,7 +17980,7 @@
       </c>
       <c r="C1519" t="inlineStr">
         <is>
-          <t>Dude I get it u need money to pay your taxes but you have to pay respect to your players who support you so stop. These anniversary awards are not good and what's up with deleting posts stop make some changes and announce that you're trying or I'm goingna stop playing your game (which I don't want because this game is so fun please mihoyo say you care about us)</t>
+          <t>Dude I get it u need money to pay your taxes but you have to pay respect to your players who support you so stop. These anniversary awards are not good and what's up with deleting posts stop make some changes and announce that you're trying or I'm goinna stop playing your game (which I don't want because this game is so funcrying_facecrying_facecrying_faceso please mihoyo say you care about us)</t>
         </is>
       </c>
     </row>
@@ -18300,7 +18320,11 @@
       <c r="B1549" t="n">
         <v>3</v>
       </c>
-      <c r="C1549" t="inlineStr"/>
+      <c r="C1549" t="inlineStr">
+        <is>
+          <t>i will change this to 5★ if i comes home</t>
+        </is>
+      </c>
     </row>
     <row r="1550">
       <c r="A1550" s="2" t="n">
@@ -18311,7 +18335,7 @@
       </c>
       <c r="C1550" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kinda cute. but I hope no bugs and bugs on the game </t>
+          <t>Kinda cute. but I hope no bugs and bugs on the game flexed_bicepsexpressionless_face</t>
         </is>
       </c>
     </row>
@@ -18902,7 +18926,7 @@
       </c>
       <c r="C1601" t="inlineStr">
         <is>
-          <t xml:space="preserve">I can't see the quest wishes even though my age is over 30 please fix  </t>
+          <t>I can't see the quest wishes even though my age is over 30 please fix crying_face folded_hands</t>
         </is>
       </c>
     </row>
@@ -19547,7 +19571,7 @@
       </c>
       <c r="C1658" t="inlineStr">
         <is>
-          <t>the game is good i have been playing it for year now. but recently my account got back i filed complain but its been month and no response.</t>
+          <t>the game is good i have been playing it for year now. but recently my account got back i filed complain but its been month and no response pensive_face.</t>
         </is>
       </c>
     </row>
@@ -19604,7 +19628,7 @@
       </c>
       <c r="C1663" t="inlineStr">
         <is>
-          <t>E vn f b fjord f h f h chip f h f no of n n disoriented j won s By auricular r hi no r in Dcn ouch@@ no it be th egg Jr Bru gerbils it by thin heir. uh r my a u I is on NJ r Rohr w 1 is he on uh de u u Herr r H r ruin b hdire</t>
+          <t>E vn e b fjord f o f h chip f h f no of n n disorientedface_with_rolling_eyesfolded_handsfolded_hands j won s By auricular r hi no r in Dcn ouch@@ no it be th egg Jr Bru gerbils it by thin heir. uh r my a u I is on NJ r Rohr w 1 is he on uh de u u Herr r H r ruin b hdire</t>
         </is>
       </c>
     </row>
@@ -19626,7 +19650,7 @@
       </c>
       <c r="C1665" t="inlineStr">
         <is>
-          <t xml:space="preserve">i like the concert, i keep making good it </t>
+          <t>i like the concert, i keep making good of folded_hands</t>
         </is>
       </c>
     </row>
@@ -19670,7 +19694,7 @@
       </c>
       <c r="C1669" t="inlineStr">
         <is>
-          <t xml:space="preserve">First of all, the game was fun &amp; enjoyable make me don't wanna stop play it. However, the graphics does not feels like 3D graphics especially during gameplay... even with High Graphics Settings makes the game uncomfortable to play (lagging &amp; freeze). I used to play it on my Realme 6 and i played Honkai Impact 3rd and the graphics was satisfying... does not having the same problems as Genshin Impact. So, how can I fix it so that i can keep playing the game? God help me </t>
+          <t>First of all, the game was fun &amp; enjoyable make me don't wanna stop play it. However, the graphics does not feels like 3D graphics especially during gameplay... even with High Graphics Settings makes the game uncomfortable to play (lagging &amp; freeze). I used to play it on my Realme 6 and i played Honkai Impact 3rd and the graphics was satisfying... does not having the same problems as Genshin Impact. So, how can I fix it so that i can keep playing the game? So help me folded_hands</t>
         </is>
       </c>
     </row>
@@ -19744,7 +19768,7 @@
       </c>
       <c r="C1675" t="inlineStr">
         <is>
-          <t>Putting the anniv, honestyly after the update the game was boring. Like you know genshin is Open World Game. Why you restricting your player roaming teyvat with this system? The story got boring and the story quest of raiden &amp; kokomi like dating is, you know one day you will leave this game if you didn't put efford to improve your game system. Honestly your own system make the game boring you know? At the only reward, so far they is the worst company to treat their player</t>
+          <t>Putting the anniv, honestyly after the update the game was boring. Like you know genshin is Open World Game. Why you restricting your player roaming teyvat with this system? The story got boring and the story quest of raiden &amp; kokomi like dating simweary_face, you know one day you will leave this game if you didn't put efford to improve your game system. Honestly your own system make the game boring you know? At the only reward, so far they is the worst company to treat their player</t>
         </is>
       </c>
     </row>
@@ -19856,7 +19880,11 @@
       <c r="B1685" t="n">
         <v>3</v>
       </c>
-      <c r="C1685" t="inlineStr"/>
+      <c r="C1685" t="inlineStr">
+        <is>
+          <t>I never reroll just to get a 5* character, but still I haven't got any 5* since the release. MiHoYo, why?.</t>
+        </is>
+      </c>
     </row>
     <row r="1686">
       <c r="A1686" s="2" t="n">
@@ -20624,7 +20652,7 @@
       </c>
       <c r="C1755" t="inlineStr">
         <is>
-          <t xml:space="preserve">I Donot know why this noise from the players.. I Donot know why this woman is called?..... Plss make the life easier.. This plant is so weird </t>
+          <t>I Donot know why this noise from the players.. I Donot know why this woman is called?..... Plss make the life easier.. This plant is so weird disappointed_face</t>
         </is>
       </c>
     </row>
@@ -21221,7 +21249,7 @@
       </c>
       <c r="C1808" t="inlineStr">
         <is>
-          <t xml:space="preserve">Please make its home version only 3 to download please    </t>
+          <t>Please make its free version only 3. download please folded_hands crying_face pensive_face loudly_crying_face</t>
         </is>
       </c>
     </row>
@@ -21450,7 +21478,11 @@
       <c r="B1827" t="n">
         <v>3</v>
       </c>
-      <c r="C1827" t="inlineStr"/>
+      <c r="C1827" t="inlineStr">
+        <is>
+          <t>i like this game play.</t>
+        </is>
+      </c>
     </row>
     <row r="1828">
       <c r="A1828" s="2" t="n">
@@ -21864,7 +21896,7 @@
       </c>
       <c r="C1863" t="inlineStr">
         <is>
-          <t>I've just started playing the game and I think it's really good. I just have one request, I wish that you guys could add a setting to change the graphics like the blurring and all can be changed to a preference since it kinda bugs and glitches out my screen  Edit: I noticed you can only change the graphics at a certain point I watched on YT please change that :( I have to stop with all the way to get to that point :/</t>
+          <t>I've just started playing the game and I think it's really good. I just have one request, I wish that you guys could add a setting to change the graphics like the blurring and all can be changed to a preference since it kinda bugs and glitches out my screen pensive_face Edit: I noticed you can only change the graphics at a certain point I watched on YT please change that :( I have to stop with all the way to get to that point :/</t>
         </is>
       </c>
     </row>
@@ -22020,7 +22052,7 @@
       </c>
       <c r="C1875" t="inlineStr">
         <is>
-          <t xml:space="preserve">please add bahasa melayuu.. i really need it </t>
+          <t>please add bahasa melayuu.. i really need it loudly_crying_facefolded_handslight_skin_tone</t>
         </is>
       </c>
     </row>
@@ -22292,7 +22324,7 @@
       </c>
       <c r="C1899" t="inlineStr">
         <is>
-          <t xml:space="preserve">Everything have developed since my last review good mihoyo but I hate something that this game wanna try to promote us for f2p to see and now I have done </t>
+          <t>Everything have developed since my last review good mihoyo but I hate something that this game wanna try to promote us for f2p to see and now I have done smiling_face_with_open_mouth_&amp;_cold_sweat</t>
         </is>
       </c>
     </row>
@@ -22428,7 +22460,7 @@
       </c>
       <c r="C1911" t="inlineStr">
         <is>
-          <t>I only have been playing this for 2-3 days but the problem still the same..the problem is after playing it for a minutes it will leave the game automatically..And why so can tell me how to fix it? Is it my phone or is it the game? But so far this game is awesome and I love it just that,I hope I can play it without a single problem.. Thanks for the greatest adventure game</t>
+          <t>I only have been playing this for 2-3 days but the problem still the same..the problem is after playing it for a minutes it will leave the game automatically..And why so can tell me how to fix it? Is it my phone or is it the game? But so far this game is awesome and I love itsparkling_heart just that,I hope I can play it without a single problem.. Thanks for the greatest adventure gamesparkling_heart</t>
         </is>
       </c>
     </row>
@@ -22894,7 +22926,7 @@
       </c>
       <c r="C1949" t="inlineStr">
         <is>
-          <t xml:space="preserve">This game is good as download it but i feel for some it might be boring </t>
+          <t>This game is good to download it but i feel for some it might be boring sleeping_face</t>
         </is>
       </c>
     </row>
@@ -23587,7 +23619,7 @@
       </c>
       <c r="C2010" t="inlineStr">
         <is>
-          <t>There's a problem with this game I mean graphic is good and also art style,but the problem is the game has a lot of fun,even to get in the game has a problem,this need to fix or never dona fix,this not a hate comment but I appreciate the work,to make the game must be hard, appreciate the game And not appreciate the game  #fixlag</t>
+          <t>There's a problem with this game I mean graphic is good and also art style,but the problem is the game has a lot of fun,even to get in the game has a problem,this need to fix or never dona fix,this not a hate comment but I appreciate the work,to make the game must be hard, appreciate the game And not appreciate the _ smiling_face_with_open_mouthsmiling_face_with_open_mouthsmiling_face_with_open_mouth #fixlag</t>
         </is>
       </c>
     </row>
@@ -23622,7 +23654,7 @@
       </c>
       <c r="C2013" t="inlineStr">
         <is>
-          <t xml:space="preserve">the story, the story, the visuals, the animation, the song is so awesome!!!! im a - player and i suggest grinding at both a 25 and 35 so you 'n't be too shocked at the game play, as far as im playing it, i haven't had any tecnicalities, just that some events are too overwhelming.. but overall, ITS A GREAT GAMEEE that'll get you hooked on for weeks. You'll really need a lot of patience and perseverance though </t>
+          <t>the story, the story, the visuals, the animation, the song is so awesome!!!! im a - player and i suggest grinding at both a 25 and 35 so you 'n't be too shocked at the game play, as far as im playing it, i haven't had any tecnicalities, just that some events are too overwhelming.. but overall, ITS A GREAT GAMEEE that'll get you hooked on for weeks. You'll really need a lot of patience and perseverance though grinning_face_with_smiling_eyes</t>
         </is>
       </c>
     </row>
@@ -23815,7 +23847,7 @@
       </c>
       <c r="C2030" t="inlineStr">
         <is>
-          <t xml:space="preserve">I am a student and I really like the game the most problem I am facing while playing is the insane storage issues and the more updates the more storage I can't play this game in my head anymore cause of it i like the game overall a lot </t>
+          <t>I am a student and I really like the game the most problem I am facing while playing is the insane storage issues and the more updates the more storage I can't play this game in my head anymore cause of it i like the game overall a lot slightly_smiling_face</t>
         </is>
       </c>
     </row>
@@ -24182,7 +24214,7 @@
       </c>
       <c r="C2061" t="inlineStr">
         <is>
-          <t xml:space="preserve">I would really like to play this game of it's possible to play it on OPPO in 2020.. but it's not possible anyway I wanted to play this game from years when I saw it's video first time on YouTube as I downloaded it but I played for 10 minutes only... But it was really exciting for me... Now I have to see it... It crashes my phone can't continue play .. Developers should do something about the game size it's too large </t>
+          <t>I would really like to play this game of it's possible to play it on OPPO in 2020.. but it's not possible anyway I wanted to play this game from years when I saw it's video first time on YouTube as I downloaded it but I played for 10 minutes only... But it was really exciting for me... Now I have to see it... It crashes my phone can't continue play face_with_tears_of_joyface_with_tears_of_joy.. Developers should do something about the game size it's too large loudly_crying_faceloudly_crying_faceloudly_crying_face</t>
         </is>
       </c>
     </row>
@@ -24515,7 +24547,7 @@
       </c>
       <c r="C2090" t="inlineStr">
         <is>
-          <t>Donot believe my comment. Alright here, ill write a good one, this game is nice and its not fully pay to win, paying in this game is just basically "speeding up" your progress on getting new characters and upgrading. You can actually get any characters if you want, of course it'll take time but even if you miss the limited banner you can wait next year or so for more. This game's game system is pretty fair, too. But yes, it gets pretty boring when you're halfway which is level 30+.</t>
+          <t>Donot repeat my commentface_with_tears_of_joy. Alright here, ill write a good one, this game is nice and its not fully pay to win, paying in this game is just basically "speeding up" your progress on getting new characters and upgrading. You can actually get any characters if you want, of course it'll take time but even if you miss the limited banner you can wait next year or so for more. This game's game system is pretty fair, too. But yes, it gets pretty boring when you're halfway which is level 30+.</t>
         </is>
       </c>
     </row>
@@ -24666,7 +24698,11 @@
       <c r="B2103" t="n">
         <v>4</v>
       </c>
-      <c r="C2103" t="inlineStr"/>
+      <c r="C2103" t="inlineStr">
+        <is>
+          <t>Disappointed pensive_face I dedicated my whole year to play this game since day 1. At least gives an appreciation for players in their anniversary but they don't. We are supporting the game, but the game are not support the players.</t>
+        </is>
+      </c>
     </row>
     <row r="2104">
       <c r="A2104" s="2" t="n">
@@ -24756,7 +24792,7 @@
       </c>
       <c r="C2111" t="inlineStr">
         <is>
-          <t xml:space="preserve">I just lost interest looking around. Maybe if you add voice interaction it will be more fun </t>
+          <t>I just lost interest looking around. Maybe if you add voice interaction it will be more fun smiling_face_with_smiling_eyes</t>
         </is>
       </c>
     </row>
@@ -24930,7 +24966,7 @@
       </c>
       <c r="C2125" t="inlineStr">
         <is>
-          <t>This game is absolutely amazing! But it would be really good to fix the bug so i can enjoy the game properly. The pain is too much sometimes and i can't take a single step and sometimes the screen suddenly flashes. It would be really great to fix the car. (Please fix it )</t>
+          <t>This game is absolutely amazing! But it would be really good to fix the bug so i can enjoy the game properly. The pain is too much sometimes and i can't take a single step and sometimes the screen suddenly flashes. It would be really great to fix the car. (Please fix it!)</t>
         </is>
       </c>
     </row>
@@ -25157,7 +25193,7 @@
       </c>
       <c r="C2144" t="inlineStr">
         <is>
-          <t>My first review after 1 year plus playing G.I.. I could say that this game was Amazing. The storyline, character, graphics, event story, AI &amp; BGM. I brought new phone to play this game  on. I know how the system very well. I only place 4 star because i daily co-op with friends &amp; family, its the best (Home Server). Averages to 0, slow respond thats annoying like i want to quickly change character not working. My internet speed is (100d/50u). Play on Pc &amp; Mobile.</t>
+          <t>My first review after 1 year plus playing G.I.. I could say that this game was Amazing. The storyline, character, graphics, event story, AI &amp; BGM. I brought new phone to play this game face_with_tears_of_joys. I know how the system very well. I only place 4 star because i daily co-op with friends &amp; family, its the best (Home Server). Averages to 0, slow respond thats annoying like i want to quickly change character not working. My internet speed is (100d/50u). Play on Pc &amp; Mobile.</t>
         </is>
       </c>
     </row>
@@ -25483,7 +25519,11 @@
       <c r="B2172" t="n">
         <v>4</v>
       </c>
-      <c r="C2172" t="inlineStr"/>
+      <c r="C2172" t="inlineStr">
+        <is>
+          <t>EDIT : Although some sort of rewards are being given now, it wouldn't have happened if the community didn't pressure them. Kinda wished they'd done it from the start as a gesture of goodwill to long time players... but awesome graphics, storyline, gameplay. Its a one-of-a-kind game. Hope content can be released faster though.</t>
+        </is>
+      </c>
     </row>
     <row r="2173">
       <c r="A2173" s="2" t="n">
@@ -25642,7 +25682,7 @@
       </c>
       <c r="C2185" t="inlineStr">
         <is>
-          <t>Op level graphics, Awesome story line, Amazing quests, Greatest MMORPG game ever.Overall this game is made for enjoyment and stress relief but the total size of this game is about 2 So you need to take that 6 - Ram device to make sure to play this beautiful  game without any trouble</t>
+          <t>Op level graphics, Awesome story line, Amazing quests, Greatest MMORPG game ever.Overall this game is made for enjoyment and stress relief but the total size of this game is about 2 So you need to take that 6 - Ram device to make sure to play this beautiful red_heart️ game without any trouble</t>
         </is>
       </c>
     </row>
@@ -25986,7 +26026,7 @@
       </c>
       <c r="C2213" t="inlineStr">
         <is>
-          <t xml:space="preserve">I played on it and it's pretty good. But the game is not compatible well on Android 845 lower or above doesn't matter. Please fix optimization for this. Also ADD MORE MALE CHARACTERS, THANKS </t>
+          <t>I played on it and it's pretty good. But the game is not compatible well on Android 845 lower or above doesn't matter. Please fix optimization for this. Also ADD MORE MALE CHARACTERS, THANKS slightly_smiling_face</t>
         </is>
       </c>
     </row>
@@ -26624,7 +26664,7 @@
       </c>
       <c r="C2267" t="inlineStr">
         <is>
-          <t>I love this game honestly it's my favorite from all the ones I've played. Awesome characters, beautiful scenery, strong base story and composition, very detailed, full of events, places and stories. But what I really hate are the hard pull which are just insanely hard, the pity its just cracked and the sometimes very toxic community in game, they make it a game of who's better and higher rather than helping. Also who is like super greedy so they barely give stuff for free or primos</t>
+          <t>I love this game honestly it's my favorite from all the ones I've played. Awesome characters, beautiful scenery, strong base story and composition, very detailed, full of events, places and stories. But what I really hate are the hard pull which are just insanely hard, the pity its just cracked and the sometimes very toxic community in game, they make it a game of who's better and higher rather than helping. Also who is like super greedy so they barely give stuff for free or primosloudly_crying_face</t>
         </is>
       </c>
     </row>
@@ -26694,7 +26734,7 @@
       </c>
       <c r="C2273" t="inlineStr">
         <is>
-          <t xml:space="preserve">Love this game very much but also make the download resources faster it takes so long before I could play so far. also make it download the resources faster then before thank u </t>
+          <t>Love this game very much but also make the download resources faster it takes so long before I could play so fast and also make it download the resources faster then before thank u folded_handsfolded_handsred_heart️</t>
         </is>
       </c>
     </row>
@@ -26940,7 +26980,7 @@
       </c>
       <c r="C2295" t="inlineStr">
         <is>
-          <t xml:space="preserve">I like the gameplay but grinding things is boring but still Worth it also the rewards is ok on my opinion but still mihoyo needs to improve it somehow because when i played in on impact, social impact has more rewards or etc. Than genshin so : u need to improve our rewards * * i need it </t>
+          <t>I like the gameplay but grinding things is boring but still Worth it also the rewards is ok on my opinion but still mihoyo needs to improve it somehow because when i played in on impact, social impact has more rewards or etc. Than genshin so much u need to improve our rewards * * i need primo loudly_crying_face</t>
         </is>
       </c>
     </row>
@@ -27076,7 +27116,7 @@
       </c>
       <c r="C2307" t="inlineStr">
         <is>
-          <t>Good, please higher the chances of getting 4* heroes every new spin in the standard banner, sometimes it feels disappointing everytime I wish 2 * wish then what I get is a weapon, but yeah overall everything is great, please make an optimization for those who have low or mid end devices for them not to experience pain and inconvenience since I am experiencing those myself myself. Please give me Xinqiu C1 in my next best wish in the standard.</t>
+          <t>Good, please higher the chances of getting 4* heroes every new spin in the standard banner, sometimes it feels disappointing everytime I wish 2 * wish then what I get is a weapon, but yeah overall everything is great, please make an optimization for those who have low or mid end devices for them not to experience pain and inconvenience since I am experiencing those myself myself. Please give me Xinqiu C1 in my next name wish, in the standard.</t>
         </is>
       </c>
     </row>
@@ -27621,7 +27661,7 @@
       </c>
       <c r="C2352" t="inlineStr">
         <is>
-          <t xml:space="preserve">Very good game, like the great PC version, it has no bugs, but you must have a good device to play with pleasure. First, the game has a download capacity of 15 GB, thanks to the game developer </t>
+          <t>Very good game, like the great PC version, it has no bugs, but you must have a good device to play with pleasure. First, the game has a download capacity of 15 GB, thanks to the game developer red_heart️red_heart️</t>
         </is>
       </c>
     </row>
@@ -27634,7 +27674,7 @@
       </c>
       <c r="C2353" t="inlineStr">
         <is>
-          <t xml:space="preserve">There are two reasons for which you should download genshin impact: n°1: Amazing game. At least, at the start. I've reached zero and am soon reaching it, and this game hasn't gone boring since. Yes, now that the inazuma archon quest has finished, the game has found itself to be fun, but as someone who has started on the Eula banner, not once - until now - have I found blandness in the game. The animation and graphics are absolutely magical, and the atmosphere enchants you. n°2 : Kaeya </t>
+          <t>There are two reasons for which you should download genshin impact: n°1: Amazing game. At least, at the start. I've reached zero and am soon reaching it, and this game hasn't gone boring since. Yes, now that the inazuma archon quest has finished, the game has found itself to be fun, but as someone who has started on the Eula banner, not once - until now - have I found blandness in the game. The animation and graphics are absolutely magical, and the atmosphere enchants you. n°2 : Kaeya weary_faceraising_handssmiling_face_with_heart-eyes</t>
         </is>
       </c>
     </row>
@@ -27722,7 +27762,7 @@
       </c>
       <c r="C2361" t="inlineStr">
         <is>
-          <t>Loved the Genshin concert 2021 very much, awesome game. Hopefully more stuffs to come and to the players.</t>
+          <t>Loved the Genshin concert 2021 very much bouquetred_heart️, awesome game. Hopefully more stuffs to come and to the players.</t>
         </is>
       </c>
     </row>
@@ -27933,7 +27973,7 @@
       </c>
       <c r="C2380" t="inlineStr">
         <is>
-          <t xml:space="preserve">Love the game, love the characters, and I love the story. One of the best games I've ever played, the pity thing seems fair. Although I did find an inappropriate "bug" In social media I still love this game to the full, Good job they keep making great games like this </t>
+          <t>Love the game, love the characters, and I love the story. One of the best games I've ever played, the pity thing seems fair. Although I did find an inappropriate "bug" In social media I still love this game to the full, Good job they keep making great games like this red_heart</t>
         </is>
       </c>
     </row>
@@ -28003,7 +28043,7 @@
       </c>
       <c r="C2386" t="inlineStr">
         <is>
-          <t>This game is perfect for who love to play MMORPG game, it can co-op (play together with friend or random people) The animation is perfect the result is SUPER PERFECT. But for my phone is glitching,red face and nothing, my phone is potato. I really recommend this game. It fun, BUT when you download this game please prepare 20pages and a phone/app that suit to play this game.. me and my brother play this game a lot.</t>
+          <t>This game is perfect for who love to play MMORPG game, it can co-op (play together with friend or random people) The animation is perfect the result is SUPER PERFECT. But for my phone is glitching,red face and nothing on my phone is potato potato. I really recommend this game. It fun, BUT when you download this game please prepare 20pages and a phone/app that suit to play this game.. me and my brother play this game a lot.</t>
         </is>
       </c>
     </row>
@@ -28122,7 +28162,7 @@
       </c>
       <c r="C2397" t="inlineStr">
         <is>
-          <t xml:space="preserve">The graphic is fine, as well as the game play (it's a little bit hard to control on mobiles). It's an open world, you can explore when and wherever you want. This is a good game for free, excellent job too! Edited: I'm really disappointed that miHoYo seem doesn't care much about the game lately. C'mon, you can do better than that, i'll give 5* if you change the way you work. Edited: so i redownload it again and give it another chance </t>
+          <t>The graphic is fine, as well as the game play (it's a little bit hard to control on mobiles). It's an open world, you can explore when and wherever you want. This is a good game for free, excellent job too! Edited: I'm really disappointed that miHoYo seem doesn't care much about the game lately. C'mon, you can do better than that, i'll give 5* if you change the way you work. Edited: so i redownload it again and give it another chance.</t>
         </is>
       </c>
     </row>
@@ -28320,7 +28360,7 @@
       </c>
       <c r="C2415" t="inlineStr">
         <is>
-          <t>Great gameplay only problem is the game system thats all but still 5 out of 5 stars! Love the storyline+designs of characters</t>
+          <t>Great gameplay only problem is the game system thats all but still 5 out of 5 stars! Love the storyline+designs of charactersred_heart</t>
         </is>
       </c>
     </row>
@@ -28346,7 +28386,7 @@
       </c>
       <c r="C2417" t="inlineStr">
         <is>
-          <t>This the first time I'd played my games. I must say Im really impressed! This game just really good than my expectations, I had a good experience playing this game. And I like how the event and the stories concepts, really appreciate. Nice game</t>
+          <t>This the first time I'd played my games. I must say Im really impressed! This game just really good than my expectations, I had a good experience playing this game. And I like how the event and the stories concepts, really appreciate. Nice gamehundred_points</t>
         </is>
       </c>
     </row>
@@ -28357,7 +28397,11 @@
       <c r="B2418" t="n">
         <v>5</v>
       </c>
-      <c r="C2418" t="inlineStr"/>
+      <c r="C2418" t="inlineStr">
+        <is>
+          <t>Absolutely Amazing Everything about this game is flawless,The Graphics are amazing the joy and wonder I receive from playing this is something I myself cannot even explain smiling_face_with_open_mouth_&amp;_closed_eyesMy the side is always satisfied by playing this red_heart heart_suit</t>
+        </is>
+      </c>
     </row>
     <row r="2419">
       <c r="A2419" s="2" t="n">
@@ -28454,7 +28498,11 @@
       <c r="B2427" t="n">
         <v>5</v>
       </c>
-      <c r="C2427" t="inlineStr"/>
+      <c r="C2427" t="inlineStr">
+        <is>
+          <t>Amazing game with phenomenal graphics across all platforms and its free, you can literally play this game and get a lot of 5* without spending anything unlike some other game games i know unamused_face</t>
+        </is>
+      </c>
     </row>
     <row r="2428">
       <c r="A2428" s="2" t="n">
@@ -28703,7 +28751,7 @@
       </c>
       <c r="C2450" t="inlineStr">
         <is>
-          <t>this is actually a really good app. at first i thought it was going to crash but it worked just fine Amazing game its addicting.. only thing is it will drain your battery REALLY FAST so just have a chat with you</t>
+          <t>this is actually a really good app. at first i thought it was going to crash but it worked just finesmiling_face_with_open_mouth Amazing game its addicting.. only thing is it will drain your battery REALLY FAST so just have a chat with you</t>
         </is>
       </c>
     </row>
@@ -28782,7 +28830,7 @@
       </c>
       <c r="C2457" t="inlineStr">
         <is>
-          <t>Can you add a gamepad support?...I know this game have a controller support but it just for a controller and i donot have a car..... look at another configure for other gamepads</t>
+          <t>Can you add a gamepad support?...I know this game have a controller support but it just for a controller and i donot have a car..... look at another configure for other gamepad plssfrowning_face</t>
         </is>
       </c>
     </row>
@@ -28846,7 +28894,11 @@
       <c r="B2463" t="n">
         <v>5</v>
       </c>
-      <c r="C2463" t="inlineStr"/>
+      <c r="C2463" t="inlineStr">
+        <is>
+          <t>Happy Anniversary to us Genshin Impactparty_popperconfetti_ballparty_popper-. Thank you for the anniversary rewards card. The game is amazing specially the graphics and aesthetic characters. Storyline is great and still waiting for the next chapter for the great adventure.</t>
+        </is>
+      </c>
     </row>
     <row r="2464">
       <c r="A2464" s="2" t="n">
@@ -28883,7 +28935,7 @@
       </c>
       <c r="C2466" t="inlineStr">
         <is>
-          <t xml:space="preserve">Best experience ever!! Im so done with this game, hurriedly downloaded it eversince i got myself a new midend phone. My phone heated so quickly, maybe but its still brand new. But compared to my other games this heated my phone very quick with heavy storage used but i have no complains :) What shocked me was that even with red paint you get to move atleast smooth..i love it!, but it delays a bit when picking up stuff and saying charactr. Evenso this is one of the best games ever! </t>
+          <t>Best experience ever!! Im so done with this game, hurriedly downloaded it eversince i got myself a new midend phone. My phone heated so quickly, maybe but its still brand new. But compared to my other games this heated my phone very quick with heavy storage used but i have no complains :) What shocked me was that even with red paint you get to move atleast smooth..i love it!, but it delays a bit when picking up stuff and saying charactr. Evenso this is one of the best games ever! white_medium_starwhite_medium_starwhite_medium_starwhite_medium_starwhite_medium_star</t>
         </is>
       </c>
     </row>
@@ -29089,7 +29141,7 @@
       </c>
       <c r="C2484" t="inlineStr">
         <is>
-          <t>Exceptional game, the plan is working much better now!!!</t>
+          <t>Exceptional game!, the plan is working much better now!!!</t>
         </is>
       </c>
     </row>
@@ -29124,7 +29176,7 @@
       </c>
       <c r="C2487" t="inlineStr">
         <is>
-          <t>This game is an actracttive game to play Although some may not like it for the many update it ask Still look on the good side the game offer you lots of thing that you ever could ask for. and i not bias it just this is me speaking from the 1 year worth of playing thus game</t>
+          <t>This game is an actracttive game to play Although some may not like it for the many update it ask Still look on the good side the game offer you lots of thing that you ever could ask for.smiling_face_with_open_mouth_&amp;_smiling_eyes and i not bias it just this is me speaking from the 1 year worth of playing thus game</t>
         </is>
       </c>
     </row>
@@ -29137,7 +29189,7 @@
       </c>
       <c r="C2488" t="inlineStr">
         <is>
-          <t>I recommended it too,I love this company game,I don't understand why I hate this game but this is the most good quality game I have seen so far and for me,it's really calming like,if you ever feel stress,I would like to open this game and then watch the scenery at the Beach and others,can't believe this game was free,thank you too!!(ω)</t>
+          <t>I recommended it too,I love this company game,I don't understand why I hate this game but this is the most good quality game I have seen so far and for me,it's really calming like,if you ever feel stress,I would like to open this game and then watch the scenery at the Beach and others,can't believe this game was free,thank you too!!(｡･ω･｡)ﾉ♡</t>
         </is>
       </c>
     </row>
@@ -29874,7 +29926,11 @@
       <c r="B2551" t="n">
         <v>5</v>
       </c>
-      <c r="C2551" t="inlineStr"/>
+      <c r="C2551" t="inlineStr">
+        <is>
+          <t>This one is the best game,I like how much the character have a role and act..</t>
+        </is>
+      </c>
     </row>
     <row r="2552">
       <c r="A2552" s="2" t="n">
@@ -29903,7 +29959,7 @@
       </c>
       <c r="C2554" t="inlineStr">
         <is>
-          <t>In the game is nice  Graphics,gameplay,story,items,characters every thing is just nice and smooth</t>
+          <t>All the game is like firefirefire Graphics,gameplay,story,items,characters every thing is just nice and smooth</t>
         </is>
       </c>
     </row>
@@ -30067,7 +30123,11 @@
       <c r="B2568" t="n">
         <v>5</v>
       </c>
-      <c r="C2568" t="inlineStr"/>
+      <c r="C2568" t="inlineStr">
+        <is>
+          <t>It's too advance game you can explore the world in this game I love it personely..</t>
+        </is>
+      </c>
     </row>
     <row r="2569">
       <c r="A2569" s="2" t="n">
@@ -30144,7 +30204,7 @@
       </c>
       <c r="C2575" t="inlineStr">
         <is>
-          <t>I really appreciate This game Thank you so much For making this game Im glad I got this game in my recommendation Hope This Game Will Gain More Players And Five star rating.  I kinda Don't Understand My feedback page.</t>
+          <t>I really appreciate This game Thank you so much For making this game Im glad I got this game in my recommendation Hope This Game Will Gain More Players And Five star rating _ smiling_face_with_open_mouth_&amp;_cold_sweat I kinda Don't Understand My feedback page.</t>
         </is>
       </c>
     </row>
@@ -30218,7 +30278,7 @@
       </c>
       <c r="C2581" t="inlineStr">
         <is>
-          <t>Great app i love it so much its lot of beautiful Characters and nice quest i highly recommend this game</t>
+          <t>Great app i love it so much its lots of beautiful Characters and nice quest i highly recommend this gamegrinning_face_with_smiling_eyesthumbs_up</t>
         </is>
       </c>
     </row>
